--- a/csv/weapons.dict.xlsx
+++ b/csv/weapons.dict.xlsx
@@ -295,7 +295,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -377,7 +377,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -715,7 +715,7 @@
     <col min="23" max="23" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -857,7 +857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -928,7 +928,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="4">
         <v>10101</v>
       </c>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
       <c r="A5" s="4">
         <v>10102</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
       <c r="A6" s="4">
         <v>10103</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
       <c r="A7" s="4">
         <v>10104</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
       <c r="A8" s="7">
         <v>10201</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
       <c r="A9" s="7">
         <v>10202</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
       <c r="A10" s="7">
         <v>10203</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
       <c r="A11" s="7">
         <v>10204</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
       <c r="A12" s="4">
         <v>10301</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
       <c r="A13" s="4">
         <v>10302</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
       <c r="A14" s="4">
         <v>10303</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
       <c r="A15" s="4">
         <v>10304</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
       <c r="A16" s="7">
         <v>10401</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
       <c r="A17" s="7">
         <v>10402</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
       <c r="A18" s="7">
         <v>10403</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75">
       <c r="A19" s="7">
         <v>10404</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21.75">
       <c r="A20" s="4">
         <v>10501</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21.75">
       <c r="A21" s="4">
         <v>10502</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21.75">
       <c r="A22" s="4">
         <v>10503</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21.75">
       <c r="A23" s="4">
         <v>10504</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21.75">
       <c r="A24" s="7">
         <v>10601</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21.75">
       <c r="A25" s="7">
         <v>10602</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21.75">
       <c r="A26" s="7">
         <v>10603</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="21.75">
       <c r="A27" s="7">
         <v>10604</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21.75">
       <c r="A28" s="4">
         <v>10701</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="21.75">
       <c r="A29" s="4">
         <v>10702</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="21.75">
       <c r="A30" s="4">
         <v>10703</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="21.75">
       <c r="A31" s="4">
         <v>10704</v>
       </c>
